--- a/courses/excel/onshore/coe/avta/FACULTY_OF_TECH_SCIENCES.xlsx
+++ b/courses/excel/onshore/coe/avta/FACULTY_OF_TECH_SCIENCES.xlsx
@@ -1,31 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aibtaus-my.sharepoint.com/personal/f_zhang_aibtglobal_edu_au/Documents/App for VC/excel table template/Excel For New School AVTA/onshore/coe/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aibtaus-my.sharepoint.com/personal/f_zhang_aibtglobal_edu_au/Documents/App for VC/excel table template/Excel For New School AVTA Course Added/onshore/coe/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="46" documentId="11_8B0793BCA77FB21812844C3ABEBA72B099DE0730" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3957B4EF-E14C-4B47-8DC4-598363047115}"/>
+  <xr:revisionPtr revIDLastSave="115" documentId="11_8B0793BCA77FB21812844C3ABEBA72B099DE0730" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B5BF0F97-1B3B-458B-9883-9FF426D406B2}"/>
   <bookViews>
-    <workbookView xWindow="-19290" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-7710" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="courses" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="47">
   <si>
     <t>vetCode</t>
   </si>
@@ -81,6 +92,96 @@
   <si>
     <t>promotionValidity</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AHC30716</t>
+  </si>
+  <si>
+    <t>110597F</t>
+  </si>
+  <si>
+    <t>CERTIFICATE III IN HORTICULTURE</t>
+  </si>
+  <si>
+    <t>44 wks Tuition + 8 wks Break</t>
+  </si>
+  <si>
+    <t>12,000 tuition fee + 200 handling fee</t>
+  </si>
+  <si>
+    <t>10,000 tuition fee + 200 handling fee</t>
+  </si>
+  <si>
+    <t>TAS</t>
+  </si>
+  <si>
+    <t>AHC40416</t>
+  </si>
+  <si>
+    <t>110598E</t>
+  </si>
+  <si>
+    <t>CERTIFICATE IV IN HORTICULTURE</t>
+  </si>
+  <si>
+    <t>AHC51422</t>
+  </si>
+  <si>
+    <t>110774E</t>
+  </si>
+  <si>
+    <t>DIPLOMA OF AGRIBUSINESS MANAGEMENT</t>
+  </si>
+  <si>
+    <t>13,000 tuition fee + 200 handling fee</t>
+  </si>
+  <si>
+    <t>AHC30716 / AHC40416</t>
+  </si>
+  <si>
+    <t>110597F / 110598E</t>
+  </si>
+  <si>
+    <t>CERTIFICATE III IN HORTICULTURE +
+CERTIFICATE IV IN HORTICULTURE</t>
+  </si>
+  <si>
+    <t>88 wks Tuition + 16 wks Break</t>
+  </si>
+  <si>
+    <t>20,000 tuition fee + 200 handling fee</t>
+  </si>
+  <si>
+    <t>AHC30716 / AHC51422</t>
+  </si>
+  <si>
+    <t>110597F / 110774E</t>
+  </si>
+  <si>
+    <t>CERTIFICATE III IN HORTICULTURE +
+DIPLOMA OF AGRIBUSINESS MANAGEMENT</t>
+  </si>
+  <si>
+    <t>21,000 tuition fee + 200 handling fee</t>
+  </si>
+  <si>
+    <t>AHC40416 / AHC51422</t>
+  </si>
+  <si>
+    <t>110598E / 110774E</t>
+  </si>
+  <si>
+    <t>CERTIFICATE IV IN HORTICULTURE +
+DIPLOMA OF AGRIBUSINESS MANAGEMENT</t>
+  </si>
+  <si>
+    <t>HORTICULTURE</t>
+  </si>
+  <si>
+    <t>MANAGEMENT</t>
+  </si>
+  <si>
+    <t>PACKAGES</t>
   </si>
 </sst>
 </file>
@@ -131,10 +232,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -151,6 +259,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -416,10 +528,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R1"/>
+  <dimension ref="A1:R7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD9"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -499,6 +611,180 @@
         <v>17</v>
       </c>
     </row>
+    <row r="2" spans="1:18" ht="45">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2">
+        <v>52</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="3">
+        <v>10200</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="M2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="45">
+      <c r="A3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3">
+        <v>52</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" s="3">
+        <v>12200</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="45">
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4">
+        <v>52</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="3">
+        <v>13200</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="M4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="45">
+      <c r="A5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5">
+        <v>104</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I5" s="3">
+        <v>20200</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="M5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="45">
+      <c r="A6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6">
+        <v>104</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I6" s="3">
+        <v>21200</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="M6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="45">
+      <c r="A7" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7">
+        <v>104</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I7" s="3">
+        <v>21200</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="M7" t="s">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
